--- a/IT_BDM/WebRoot/files/import/xtz/站点资料.xlsx
+++ b/IT_BDM/WebRoot/files/import/xtz/站点资料.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>网点条码</t>
   </si>
@@ -46,29 +46,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>维护类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>维护</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>IT</t>
-    </r>
+    <t>操作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网点类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护IT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级网点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙坑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上数据是示例数据，请连同这条一起删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -76,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,28 +120,25 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="等线 Light"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,11 +172,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,22 +458,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="26.109375" style="4" customWidth="1"/>
-    <col min="3" max="7" width="13.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="13.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="3" customWidth="1"/>
+    <col min="3" max="7" width="13.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="13" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,47 +485,93 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>51800152</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>42724</v>
+      </c>
+      <c r="D2" s="4">
+        <v>42724</v>
+      </c>
+      <c r="E2" s="1">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>51800252</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4">
+        <v>42724</v>
+      </c>
+      <c r="D3" s="4">
+        <v>42724</v>
+      </c>
+      <c r="E3" s="1">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -509,7 +580,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -518,7 +589,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -527,7 +598,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -536,7 +607,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
